--- a/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4895268806132815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6177578858318508</v>
+        <v>0.6177578858318505</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7463027467318878</v>
@@ -685,7 +685,7 @@
         <v>0.6781472070351572</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5023058360010493</v>
+        <v>0.5023058360010494</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5432550212962183</v>
@@ -697,7 +697,7 @@
         <v>0.5805160537519034</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5596755515466743</v>
+        <v>0.5596755515466741</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1636938290306407</v>
+        <v>0.1539657543015653</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3755056332671171</v>
+        <v>0.3712046588938718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2725202859899649</v>
+        <v>0.2600106527731869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4038028486679166</v>
+        <v>0.4107104148436855</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2844955250678294</v>
+        <v>0.3417678518638023</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6064421424636269</v>
+        <v>0.5620138885502641</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4547005259165731</v>
+        <v>0.4396333623328781</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3478450757975171</v>
+        <v>0.3470971113644716</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3013134893620625</v>
+        <v>0.319400579672098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4976243248721159</v>
+        <v>0.4918953580622061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4303755045149243</v>
+        <v>0.4164974057344342</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4333631609515238</v>
+        <v>0.4207129368643864</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6969406020628449</v>
+        <v>0.7058888926713935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7525516004108265</v>
+        <v>0.7605844018530639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.716916291952311</v>
+        <v>0.7080605124203316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7983113291649797</v>
+        <v>0.8065216277201593</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.954199488516654</v>
+        <v>0.9527818541417733</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8649608841549806</v>
+        <v>0.8548838009299882</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6526778939396736</v>
+        <v>0.660317738053794</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7650601293556241</v>
+        <v>0.7578452245438996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7897536842689438</v>
+        <v>0.7829935424384823</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7428589947879033</v>
+        <v>0.7392302434728129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6911993443625601</v>
+        <v>0.6740959862119072</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6535283030998892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5887126727241963</v>
+        <v>0.5887126727241961</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3871651729538864</v>
@@ -821,7 +821,7 @@
         <v>0.7858407865848803</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4693889002619689</v>
+        <v>0.4693889002619688</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3720437640673805</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08145924966834678</v>
+        <v>0.145555425434971</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3731041294793149</v>
+        <v>0.3893671685050751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3670193465090076</v>
+        <v>0.3670101137179937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3292959248904718</v>
+        <v>0.3674491643429034</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3454622155006982</v>
+        <v>0.3655226421110409</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5610265375199165</v>
+        <v>0.5212925963987359</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3008103810058258</v>
+        <v>0.3179979365569548</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1625358499251694</v>
+        <v>0.1647807484912532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4268564890598398</v>
+        <v>0.4081588734139777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5418224764299727</v>
+        <v>0.5387950208364986</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3933632772572824</v>
+        <v>0.3946314378117606</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6680546287359217</v>
+        <v>0.6823234379968705</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.727905549148784</v>
+        <v>0.7325275529483596</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8321194770464381</v>
+        <v>0.8367997239953789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.779007854124275</v>
+        <v>0.7834603827962783</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.8274010907446142</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7589232214634765</v>
+        <v>0.7500416865603272</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9504330342402793</v>
+        <v>0.9492024770026903</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6362711619832738</v>
+        <v>0.6421155496076963</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6635735433676604</v>
+        <v>0.6397010923920237</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6843011776513765</v>
+        <v>0.6860737166394316</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8567639194539134</v>
+        <v>0.8510241304043316</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6528241767181909</v>
+        <v>0.6565096665984835</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5202236928207172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5640086295202427</v>
+        <v>0.5640086295202429</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1995996539898638</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2887336491297878</v>
+        <v>0.288450548263371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4686571932679476</v>
+        <v>0.4996771769657244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3540455848889267</v>
+        <v>0.356913879987146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.395441835250992</v>
+        <v>0.3870289114004155</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1622465631749324</v>
+        <v>0.167010093094922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1455085521947735</v>
+        <v>0.1281750069661589</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1776501505015854</v>
+        <v>0.1852915008160094</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2755186271187555</v>
+        <v>0.2612394691231786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4597436547352714</v>
+        <v>0.4577320331741336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3548860558038617</v>
+        <v>0.3574294618164502</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3785116549968637</v>
+        <v>0.3810476864324307</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6647893497232319</v>
+        <v>0.6625135658157578</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7458839362507936</v>
+        <v>0.7532985917987258</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7046539719731175</v>
+        <v>0.7136473720829252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7107267592640706</v>
+        <v>0.7076479687150966</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7767458916857402</v>
+        <v>0.7348193932501182</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7343594160206054</v>
+        <v>0.7438759771601263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8760845562389987</v>
+        <v>0.8768890296577965</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.588006842558944</v>
+        <v>0.5941767231750233</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6257094848167243</v>
+        <v>0.6080378953005133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7153093859235596</v>
+        <v>0.715070859553476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6712503286916329</v>
+        <v>0.6739212310252002</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.650451129889138</v>
+        <v>0.6451132665023582</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.692376344749974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5487979177285609</v>
+        <v>0.548797917728561</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7095479813810831</v>
@@ -1093,7 +1093,7 @@
         <v>0.6243572998268455</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6499746083894676</v>
+        <v>0.6499746083894677</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5708897739103026</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3192923458713803</v>
+        <v>0.3223482668885874</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.477770027208334</v>
+        <v>0.4818013383305377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5573599226601469</v>
+        <v>0.5656102116653982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4143693137268439</v>
+        <v>0.4246913319851133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4948907968227899</v>
+        <v>0.4925416126504475</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4562021419069294</v>
+        <v>0.4576227869035953</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4581150917960924</v>
+        <v>0.4640181438335194</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5360347901678867</v>
+        <v>0.5141033790326104</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4503814567564983</v>
+        <v>0.424230955471378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5096890804415611</v>
+        <v>0.503089315565165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5643710251108701</v>
+        <v>0.5671338182174597</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4977360290104933</v>
+        <v>0.4947179735785666</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6585669241840436</v>
+        <v>0.6536780569950879</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6737434513235911</v>
+        <v>0.6763701129104056</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8145234165959849</v>
+        <v>0.7995759398553971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6690408712190675</v>
+        <v>0.6773588536691674</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8714053976966568</v>
+        <v>0.8773824827793616</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7322404207239261</v>
+        <v>0.7422353887638962</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7687740530192502</v>
+        <v>0.7721888584969927</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7521531716650118</v>
+        <v>0.7505919320497689</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7113940521186258</v>
+        <v>0.6803517076549302</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6614391257081834</v>
+        <v>0.6663875255209172</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7554443592824974</v>
+        <v>0.7561218745417816</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6776874384246914</v>
+        <v>0.675938579994961</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5567023502697699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6557589750485087</v>
+        <v>0.6557589750485084</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7648998258159218</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2067266615783784</v>
+        <v>0.2148713051249689</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3986284095148863</v>
+        <v>0.3954858129042684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4075050801262638</v>
+        <v>0.3808783576441128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4657422146994598</v>
+        <v>0.4515757586775838</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5405657070533105</v>
+        <v>0.5387561228793379</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4047954950593825</v>
+        <v>0.3980732305980392</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4258319724977918</v>
+        <v>0.4115908249344937</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3574961336270259</v>
+        <v>0.3650715347230351</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5021556202409748</v>
+        <v>0.5008793054404687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.440519596129485</v>
+        <v>0.4369754347816068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4559853196521052</v>
+        <v>0.4462902706964628</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4579042049029923</v>
+        <v>0.4533918247672112</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7800321767474168</v>
+        <v>0.8026654608067386</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7250444190082114</v>
+        <v>0.7262008698602109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6924469792861222</v>
+        <v>0.6873456783031093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8160374016609303</v>
+        <v>0.80529404398326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9152925466630184</v>
+        <v>0.915586814074104</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6594214726596597</v>
+        <v>0.6544728566923451</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7385603747363787</v>
+        <v>0.7271859853636869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5849496869318895</v>
+        <v>0.5920977721719325</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8302660010141514</v>
+        <v>0.8267166945038976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.632715524617385</v>
+        <v>0.6458927057524019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6782368962251263</v>
+        <v>0.6741516925001176</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6552862206468352</v>
+        <v>0.6553367159633808</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6752187991820041</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4937300208522852</v>
+        <v>0.4937300208522854</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5690151918099786</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2358405501388784</v>
+        <v>0.2704445892003038</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4318235231691704</v>
+        <v>0.4069231143874701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4579412590811634</v>
+        <v>0.4639844159948376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2897242059613405</v>
+        <v>0.3600606107940472</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4229407491793278</v>
+        <v>0.4149732718425514</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4052702031191567</v>
+        <v>0.3949716882945316</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5506224265637383</v>
+        <v>0.5382175722702938</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3644661195141673</v>
+        <v>0.3678266537147282</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4066480845169997</v>
+        <v>0.4228459007586104</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4374183709523337</v>
+        <v>0.43351961639808</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5591024485270064</v>
+        <v>0.5514228423124834</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4158955149343158</v>
+        <v>0.4220538410005091</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7614020751031125</v>
+        <v>0.7631840760987912</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7873809676046212</v>
+        <v>0.7870304578724636</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8232782684755687</v>
+        <v>0.8272265311033428</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7860964368690152</v>
+        <v>0.7917006544158359</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6130322342755873</v>
+        <v>0.6056542415171502</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7906997047176146</v>
+        <v>0.8031681267764875</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6287399031362108</v>
+        <v>0.6229252631980965</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7080787879837258</v>
+        <v>0.7189165660465141</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6212252147443972</v>
+        <v>0.6169287684758685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7605256413114956</v>
+        <v>0.7556574524971382</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6827580923421807</v>
+        <v>0.6766547620912665</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.6277089854221737</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5582572058748569</v>
+        <v>0.5582572058748568</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3765648255649906</v>
+        <v>0.3822121908970534</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5200926980494518</v>
+        <v>0.5229063672137936</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4626120657962293</v>
+        <v>0.4565472497215763</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4715632087510057</v>
+        <v>0.4764023634714588</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5104984864434658</v>
+        <v>0.503053893251925</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5592828677809857</v>
+        <v>0.5568573578899511</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6725376918033539</v>
+        <v>0.6692670042305752</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5762440071290101</v>
+        <v>0.5767246920518201</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6118093162306316</v>
+        <v>0.6127831886788645</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6042605024114341</v>
+        <v>0.5985042984883593</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2062</v>
+        <v>1940</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12753</v>
+        <v>12607</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5869</v>
+        <v>5600</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10445</v>
+        <v>10624</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2208</v>
+        <v>2652</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10509</v>
+        <v>9739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9126</v>
+        <v>8823</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9109</v>
+        <v>9090</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6134</v>
+        <v>6502</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25524</v>
+        <v>25230</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17906</v>
+        <v>17329</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22559</v>
+        <v>21901</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8780</v>
+        <v>8893</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25558</v>
+        <v>25831</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15440</v>
+        <v>15249</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20650</v>
+        <v>20862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>7761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16535</v>
+        <v>16511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17360</v>
+        <v>17158</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17092</v>
+        <v>17292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15575</v>
+        <v>15428</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40507</v>
+        <v>40161</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30907</v>
+        <v>30756</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>35981</v>
+        <v>35091</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1082</v>
+        <v>1933</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12106</v>
+        <v>12633</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>6188</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8473</v>
+        <v>9455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9277</v>
+        <v>9816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12391</v>
+        <v>11513</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7515</v>
+        <v>7945</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3067</v>
+        <v>3109</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25313</v>
+        <v>24205</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21102</v>
+        <v>20984</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>19949</v>
+        <v>20013</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8872</v>
+        <v>9062</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23618</v>
+        <v>23768</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14030</v>
+        <v>14108</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20045</v>
+        <v>20160</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>4624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20381</v>
+        <v>20142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20991</v>
+        <v>20964</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15896</v>
+        <v>16042</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12520</v>
+        <v>12070</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40580</v>
+        <v>40686</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33368</v>
+        <v>33144</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>33107</v>
+        <v>33294</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8167</v>
+        <v>8159</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26544</v>
+        <v>28301</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10999</v>
+        <v>11088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14739</v>
+        <v>14425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2271</v>
+        <v>2338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1280</v>
+        <v>1128</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2254</v>
+        <v>2351</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9159</v>
+        <v>8684</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>32476</v>
+        <v>32334</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>14148</v>
+        <v>14249</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18910</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18804</v>
+        <v>18739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42246</v>
+        <v>42666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21891</v>
+        <v>22171</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26489</v>
+        <v>26375</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3850</v>
+        <v>3642</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10281</v>
+        <v>10414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7708</v>
+        <v>7715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7461</v>
+        <v>7539</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20800</v>
+        <v>20212</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>50529</v>
+        <v>50512</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26759</v>
+        <v>26866</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>32496</v>
+        <v>32229</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12460</v>
+        <v>12579</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45684</v>
+        <v>46070</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32880</v>
+        <v>33366</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32230</v>
+        <v>33032</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12377</v>
+        <v>12318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22207</v>
+        <v>22277</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17621</v>
+        <v>17848</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29693</v>
+        <v>28478</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28839</v>
+        <v>27164</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73548</v>
+        <v>72595</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>55002</v>
+        <v>55271</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>66285</v>
+        <v>65884</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25699</v>
+        <v>25508</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64423</v>
+        <v>64675</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48050</v>
+        <v>47169</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52038</v>
+        <v>52685</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21794</v>
+        <v>21943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>35645</v>
+        <v>36131</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29571</v>
+        <v>29702</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41665</v>
+        <v>41578</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>45552</v>
+        <v>43564</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>95445</v>
+        <v>96159</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73623</v>
+        <v>73689</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>90250</v>
+        <v>90017</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2613</v>
+        <v>2716</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15258</v>
+        <v>15138</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16945</v>
+        <v>15838</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18779</v>
+        <v>18208</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12135</v>
+        <v>12094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23570</v>
+        <v>23178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17208</v>
+        <v>16633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20363</v>
+        <v>20794</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17621</v>
+        <v>17576</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>42511</v>
+        <v>42169</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>37388</v>
+        <v>36593</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>44545</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9860</v>
+        <v>10146</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27753</v>
+        <v>27797</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28794</v>
+        <v>28582</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32903</v>
+        <v>32470</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20546</v>
+        <v>20553</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>38395</v>
+        <v>38107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29846</v>
+        <v>29386</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33319</v>
+        <v>33726</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>29134</v>
+        <v>29009</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>61059</v>
+        <v>62331</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>55611</v>
+        <v>55276</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>63747</v>
+        <v>63752</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3819</v>
+        <v>4379</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11584</v>
+        <v>10916</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13553</v>
+        <v>13732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3251</v>
+        <v>4041</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11860</v>
+        <v>11637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>36172</v>
+        <v>35253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>33277</v>
+        <v>32527</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17931</v>
+        <v>18096</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17988</v>
+        <v>18704</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>50775</v>
+        <v>50323</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>50337</v>
+        <v>49645</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>25128</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12329</v>
+        <v>12357</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21121</v>
+        <v>21112</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24366</v>
+        <v>24483</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>11222</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22044</v>
+        <v>22201</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>54716</v>
+        <v>54057</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>47786</v>
+        <v>48539</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>30933</v>
+        <v>30647</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>31321</v>
+        <v>31801</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>72111</v>
+        <v>71612</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>68471</v>
+        <v>68033</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>41252</v>
+        <v>40883</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>45948</v>
+        <v>46638</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>113480</v>
+        <v>114094</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>104278</v>
+        <v>102911</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>101775</v>
+        <v>102820</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>226459</v>
+        <v>223157</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>68244</v>
+        <v>67948</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>146742</v>
+        <v>146029</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>129892</v>
+        <v>130001</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>132044</v>
+        <v>132254</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>268052</v>
+        <v>265499</v>
       </c>
     </row>
     <row r="32">
